--- a/REGULAR/ONT/COLETO, HANY ROY.xlsx
+++ b/REGULAR/ONT/COLETO, HANY ROY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AB2C6E-2B58-4B38-801F-65034776700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
   <si>
     <t>PERIOD</t>
   </si>
@@ -340,12 +339,15 @@
   </si>
   <si>
     <t>ANNIV 5/18/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1017,7 +1019,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1034,25 +1036,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K242" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K243" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1359,34 +1361,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K242"/>
+  <dimension ref="A2:K243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A169"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
+      <pane ySplit="3690" topLeftCell="A169" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1407,7 +1409,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1425,7 +1427,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1447,7 +1449,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1455,7 +1457,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1468,7 +1470,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1485,7 +1487,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +1522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1529,7 +1531,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>52.347999999999985</v>
+        <v>56.097999999999985</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1539,12 +1541,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>110.542</v>
+        <v>114.292</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1567,7 +1569,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>40634</v>
       </c>
@@ -1587,7 +1589,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>40664</v>
       </c>
@@ -1611,7 +1613,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>40695</v>
       </c>
@@ -1631,7 +1633,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>40725</v>
       </c>
@@ -1651,7 +1653,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>40756</v>
       </c>
@@ -1671,7 +1673,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>40787</v>
       </c>
@@ -1691,7 +1693,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>40817</v>
       </c>
@@ -1711,7 +1713,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>40848</v>
       </c>
@@ -1731,7 +1733,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>40878</v>
       </c>
@@ -1751,7 +1753,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>46</v>
       </c>
@@ -1769,7 +1771,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>40909</v>
       </c>
@@ -1789,7 +1791,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>40940</v>
       </c>
@@ -1809,7 +1811,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>40969</v>
       </c>
@@ -1829,7 +1831,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>41000</v>
       </c>
@@ -1849,7 +1851,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>41030</v>
       </c>
@@ -1869,7 +1871,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>41061</v>
       </c>
@@ -1889,7 +1891,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>41091</v>
       </c>
@@ -1915,7 +1917,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>41122</v>
       </c>
@@ -1935,7 +1937,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>41153</v>
       </c>
@@ -1955,7 +1957,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>41183</v>
       </c>
@@ -1975,7 +1977,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>41214</v>
       </c>
@@ -1995,7 +1997,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>41244</v>
       </c>
@@ -2015,7 +2017,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>49</v>
       </c>
@@ -2033,7 +2035,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>41275</v>
       </c>
@@ -2053,7 +2055,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>41306</v>
       </c>
@@ -2073,7 +2075,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>41334</v>
       </c>
@@ -2093,7 +2095,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>41365</v>
       </c>
@@ -2119,7 +2121,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>41395</v>
       </c>
@@ -2139,7 +2141,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>41426</v>
       </c>
@@ -2159,7 +2161,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>41456</v>
       </c>
@@ -2183,7 +2185,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>41487</v>
       </c>
@@ -2209,7 +2211,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>54</v>
@@ -2228,7 +2230,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>41518</v>
       </c>
@@ -2254,7 +2256,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>41548</v>
       </c>
@@ -2274,7 +2276,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>41579</v>
       </c>
@@ -2294,7 +2296,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>41609</v>
       </c>
@@ -2314,7 +2316,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>58</v>
       </c>
@@ -2332,7 +2334,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>41640</v>
       </c>
@@ -2352,7 +2354,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>41671</v>
       </c>
@@ -2372,7 +2374,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>41699</v>
       </c>
@@ -2392,7 +2394,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>41730</v>
       </c>
@@ -2412,7 +2414,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>41760</v>
       </c>
@@ -2432,7 +2434,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>41791</v>
       </c>
@@ -2452,7 +2454,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>41821</v>
       </c>
@@ -2472,7 +2474,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>41852</v>
       </c>
@@ -2492,7 +2494,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>41883</v>
       </c>
@@ -2512,7 +2514,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>41913</v>
       </c>
@@ -2532,7 +2534,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>41944</v>
       </c>
@@ -2552,7 +2554,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>41974</v>
       </c>
@@ -2576,7 +2578,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>60</v>
       </c>
@@ -2594,7 +2596,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>42005</v>
       </c>
@@ -2614,7 +2616,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>42036</v>
       </c>
@@ -2634,7 +2636,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>42064</v>
       </c>
@@ -2654,7 +2656,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>42095</v>
       </c>
@@ -2674,7 +2676,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>42125</v>
       </c>
@@ -2694,7 +2696,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>42156</v>
       </c>
@@ -2714,7 +2716,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>42186</v>
       </c>
@@ -2734,7 +2736,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>42217</v>
       </c>
@@ -2754,7 +2756,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>42248</v>
       </c>
@@ -2774,7 +2776,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>42278</v>
       </c>
@@ -2794,7 +2796,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>42309</v>
       </c>
@@ -2814,7 +2816,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>42339</v>
       </c>
@@ -2838,7 +2840,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>61</v>
       </c>
@@ -2856,7 +2858,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>42370</v>
       </c>
@@ -2876,7 +2878,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>42401</v>
       </c>
@@ -2896,7 +2898,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>42430</v>
       </c>
@@ -2922,7 +2924,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>42461</v>
       </c>
@@ -2942,7 +2944,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>42491</v>
       </c>
@@ -2962,7 +2964,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>42522</v>
       </c>
@@ -2982,7 +2984,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>42552</v>
       </c>
@@ -3002,7 +3004,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>42583</v>
       </c>
@@ -3022,7 +3024,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>42614</v>
       </c>
@@ -3042,7 +3044,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>42644</v>
       </c>
@@ -3062,7 +3064,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>42675</v>
       </c>
@@ -3086,7 +3088,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>42705</v>
       </c>
@@ -3110,7 +3112,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>62</v>
       </c>
@@ -3128,7 +3130,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>42736</v>
       </c>
@@ -3152,7 +3154,7 @@
         <v>42767</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>52</v>
@@ -3171,7 +3173,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>70</v>
@@ -3188,7 +3190,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>42767</v>
       </c>
@@ -3208,7 +3210,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>42795</v>
       </c>
@@ -3228,7 +3230,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>42826</v>
       </c>
@@ -3248,7 +3250,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>42856</v>
       </c>
@@ -3274,7 +3276,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>71</v>
@@ -3293,7 +3295,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>42887</v>
       </c>
@@ -3313,7 +3315,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>42917</v>
       </c>
@@ -3333,7 +3335,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>42948</v>
       </c>
@@ -3353,7 +3355,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>42979</v>
       </c>
@@ -3373,7 +3375,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>43009</v>
       </c>
@@ -3399,7 +3401,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>43040</v>
       </c>
@@ -3425,7 +3427,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>43070</v>
       </c>
@@ -3445,7 +3447,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>63</v>
       </c>
@@ -3463,7 +3465,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>43101</v>
       </c>
@@ -3483,7 +3485,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>43132</v>
       </c>
@@ -3503,7 +3505,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>43160</v>
       </c>
@@ -3523,7 +3525,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>43191</v>
       </c>
@@ -3543,7 +3545,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>43221</v>
       </c>
@@ -3569,7 +3571,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>43252</v>
       </c>
@@ -3589,7 +3591,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>43282</v>
       </c>
@@ -3609,7 +3611,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>43313</v>
       </c>
@@ -3629,7 +3631,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>43344</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>80</v>
@@ -3674,7 +3676,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>43374</v>
       </c>
@@ -3694,7 +3696,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>43405</v>
       </c>
@@ -3714,7 +3716,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>43435</v>
       </c>
@@ -3734,7 +3736,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>64</v>
       </c>
@@ -3752,7 +3754,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>43466</v>
       </c>
@@ -3772,7 +3774,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>43497</v>
       </c>
@@ -3792,7 +3794,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>43525</v>
       </c>
@@ -3812,7 +3814,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>43556</v>
       </c>
@@ -3832,7 +3834,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>43586</v>
       </c>
@@ -3856,7 +3858,7 @@
         <v>43603</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>85</v>
@@ -3875,7 +3877,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>43617</v>
       </c>
@@ -3895,7 +3897,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>43647</v>
       </c>
@@ -3915,7 +3917,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>43678</v>
       </c>
@@ -3935,7 +3937,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>43709</v>
       </c>
@@ -3955,7 +3957,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>43739</v>
       </c>
@@ -3975,7 +3977,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>43770</v>
       </c>
@@ -3995,7 +3997,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>43800</v>
       </c>
@@ -4021,7 +4023,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
         <v>89</v>
       </c>
@@ -4039,7 +4041,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>43831</v>
       </c>
@@ -4059,7 +4061,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>43862</v>
       </c>
@@ -4079,7 +4081,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>43891</v>
       </c>
@@ -4099,7 +4101,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>43922</v>
       </c>
@@ -4119,7 +4121,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>43952</v>
       </c>
@@ -4139,7 +4141,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>43983</v>
       </c>
@@ -4159,7 +4161,7 @@
       <c r="J136" s="12"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>44013</v>
       </c>
@@ -4179,7 +4181,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>44044</v>
       </c>
@@ -4199,7 +4201,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>44075</v>
       </c>
@@ -4219,7 +4221,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>44105</v>
       </c>
@@ -4239,7 +4241,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>44136</v>
       </c>
@@ -4259,7 +4261,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>44166</v>
       </c>
@@ -4283,7 +4285,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="48" t="s">
         <v>90</v>
       </c>
@@ -4301,7 +4303,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>44197</v>
       </c>
@@ -4321,7 +4323,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>44228</v>
       </c>
@@ -4341,7 +4343,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>44256</v>
       </c>
@@ -4361,7 +4363,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>44287</v>
       </c>
@@ -4381,7 +4383,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>44317</v>
       </c>
@@ -4401,7 +4403,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>44348</v>
       </c>
@@ -4421,7 +4423,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>44378</v>
       </c>
@@ -4441,7 +4443,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>44409</v>
       </c>
@@ -4461,7 +4463,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>44440</v>
       </c>
@@ -4481,7 +4483,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>44470</v>
       </c>
@@ -4501,7 +4503,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>44501</v>
       </c>
@@ -4521,7 +4523,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>44531</v>
       </c>
@@ -4545,7 +4547,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="48" t="s">
         <v>91</v>
       </c>
@@ -4563,7 +4565,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>44562</v>
       </c>
@@ -4583,7 +4585,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>44593</v>
       </c>
@@ -4603,7 +4605,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>44621</v>
       </c>
@@ -4623,7 +4625,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>44652</v>
       </c>
@@ -4643,7 +4645,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>44682</v>
       </c>
@@ -4663,7 +4665,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>44713</v>
       </c>
@@ -4689,7 +4691,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>44743</v>
       </c>
@@ -4709,7 +4711,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>44774</v>
       </c>
@@ -4729,7 +4731,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>44805</v>
       </c>
@@ -4755,7 +4757,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>44835</v>
       </c>
@@ -4775,7 +4777,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>44866</v>
       </c>
@@ -4799,7 +4801,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>44896</v>
       </c>
@@ -4819,7 +4821,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="48" t="s">
         <v>95</v>
       </c>
@@ -4837,7 +4839,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>44957</v>
       </c>
@@ -4857,7 +4859,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>44985</v>
       </c>
@@ -4881,7 +4883,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>45016</v>
       </c>
@@ -4907,7 +4909,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>98</v>
@@ -4929,7 +4931,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>45046</v>
       </c>
@@ -4949,7 +4951,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>45077</v>
       </c>
@@ -4973,7 +4975,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>45107</v>
       </c>
@@ -4993,7 +4995,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>45138</v>
       </c>
@@ -5013,7 +5015,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>45169</v>
       </c>
@@ -5033,7 +5035,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>45199</v>
       </c>
@@ -5053,70 +5055,76 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>45230</v>
       </c>
       <c r="B180" s="20"/>
-      <c r="C180" s="13"/>
+      <c r="C180" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D180" s="39"/>
       <c r="E180" s="9"/>
       <c r="F180" s="20"/>
-      <c r="G180" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G180" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H180" s="39"/>
       <c r="I180" s="9"/>
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>45260</v>
       </c>
       <c r="B181" s="20"/>
-      <c r="C181" s="13"/>
+      <c r="C181" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D181" s="39"/>
       <c r="E181" s="9"/>
       <c r="F181" s="20"/>
-      <c r="G181" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G181" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H181" s="39"/>
       <c r="I181" s="9"/>
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>45291</v>
       </c>
       <c r="B182" s="20"/>
-      <c r="C182" s="13"/>
+      <c r="C182" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D182" s="39"/>
       <c r="E182" s="9"/>
       <c r="F182" s="20"/>
-      <c r="G182" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G182" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H182" s="39"/>
       <c r="I182" s="9"/>
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A183" s="40">
-        <v>45322</v>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
       <c r="D183" s="39"/>
       <c r="E183" s="9"/>
       <c r="F183" s="20"/>
-      <c r="G183" s="42" t="str">
+      <c r="G183" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -5125,9 +5133,9 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -5143,9 +5151,9 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -5161,9 +5169,9 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -5179,9 +5187,9 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -5197,9 +5205,9 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -5215,9 +5223,9 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -5233,9 +5241,9 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -5251,9 +5259,9 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -5269,9 +5277,9 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -5287,9 +5295,9 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -5305,9 +5313,9 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -5323,9 +5331,9 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -5341,9 +5349,9 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -5359,9 +5367,9 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -5377,9 +5385,9 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -5395,9 +5403,9 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -5413,9 +5421,9 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -5431,9 +5439,9 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -5449,9 +5457,9 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -5467,9 +5475,9 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -5485,9 +5493,9 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -5503,9 +5511,9 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -5521,9 +5529,9 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -5539,9 +5547,9 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -5557,9 +5565,9 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -5575,9 +5583,9 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -5593,9 +5601,9 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -5611,9 +5619,9 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -5629,9 +5637,9 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -5647,8 +5655,10 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A213" s="40"/>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="40">
+        <v>46203</v>
+      </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
       <c r="D213" s="39"/>
@@ -5663,7 +5673,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -5679,7 +5689,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -5695,7 +5705,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -5711,7 +5721,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -5727,7 +5737,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -5743,7 +5753,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -5759,7 +5769,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -5775,7 +5785,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -5791,7 +5801,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -5807,7 +5817,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -5823,7 +5833,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -5839,7 +5849,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -5855,7 +5865,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -5871,7 +5881,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -5887,7 +5897,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -5903,7 +5913,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -5919,7 +5929,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -5935,7 +5945,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -5951,7 +5961,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -5967,7 +5977,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -5983,7 +5993,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -5999,7 +6009,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -6015,7 +6025,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -6031,7 +6041,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -6047,7 +6057,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -6063,7 +6073,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -6079,7 +6089,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -6095,7 +6105,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -6111,21 +6121,37 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A242" s="41"/>
-      <c r="B242" s="15"/>
-      <c r="C242" s="42"/>
-      <c r="D242" s="43"/>
-      <c r="E242" s="50"/>
-      <c r="F242" s="15"/>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" s="40"/>
+      <c r="B242" s="20"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="39"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="20"/>
       <c r="G242" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H242" s="43"/>
-      <c r="I242" s="50"/>
-      <c r="J242" s="12"/>
-      <c r="K242" s="15"/>
+      <c r="H242" s="39"/>
+      <c r="I242" s="9"/>
+      <c r="J242" s="11"/>
+      <c r="K242" s="20"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" s="41"/>
+      <c r="B243" s="15"/>
+      <c r="C243" s="42"/>
+      <c r="D243" s="43"/>
+      <c r="E243" s="50"/>
+      <c r="F243" s="15"/>
+      <c r="G243" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H243" s="43"/>
+      <c r="I243" s="50"/>
+      <c r="J243" s="12"/>
+      <c r="K243" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6142,10 +6168,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6168,28 +6194,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -6202,7 +6228,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6231,7 +6257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -6251,17 +6277,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6282,7 +6308,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6309,7 +6335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6335,7 +6361,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6361,7 +6387,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6387,7 +6413,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6413,7 +6439,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6439,7 +6465,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6465,7 +6491,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6491,7 +6517,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6511,7 +6537,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6531,7 +6557,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6551,7 +6577,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6572,7 +6598,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6593,7 +6619,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6614,7 +6640,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6635,7 +6661,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6656,7 +6682,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6677,7 +6703,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6698,7 +6724,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6719,7 +6745,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6740,7 +6766,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6761,7 +6787,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6782,7 +6808,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6803,7 +6829,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6824,7 +6850,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6845,7 +6871,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6866,7 +6892,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6887,7 +6913,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6908,7 +6934,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6929,7 +6955,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6950,7 +6976,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6971,7 +6997,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6980,7 +7006,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6989,7 +7015,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6998,7 +7024,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7007,7 +7033,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7016,7 +7042,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7025,7 +7051,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7034,7 +7060,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7043,7 +7069,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7052,7 +7078,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7061,7 +7087,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7070,7 +7096,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7079,7 +7105,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7088,7 +7114,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7097,7 +7123,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7106,7 +7132,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7115,7 +7141,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7124,7 +7150,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7133,7 +7159,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7142,7 +7168,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7151,7 +7177,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7160,7 +7186,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7169,7 +7195,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7178,7 +7204,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7187,7 +7213,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7196,7 +7222,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7205,7 +7231,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7214,7 +7240,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7223,7 +7249,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7232,7 +7258,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ONT/COLETO, HANY ROY.xlsx
+++ b/REGULAR/ONT/COLETO, HANY ROY.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
   <si>
     <t>PERIOD</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>VL(23-0-0)</t>
+  </si>
+  <si>
+    <t>4/1 - 5/1/2024</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1042,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K243" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K244" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1365,12 +1371,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K243"/>
+  <dimension ref="A2:K244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A169" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
+      <selection pane="bottomLeft" activeCell="K185" sqref="K185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1537,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>56.097999999999985</v>
+        <v>33.097999999999985</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5137,9 +5143,13 @@
       <c r="A184" s="40">
         <v>45322</v>
       </c>
-      <c r="B184" s="20"/>
+      <c r="B184" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="39"/>
+      <c r="D184" s="39">
+        <v>23</v>
+      </c>
       <c r="E184" s="9"/>
       <c r="F184" s="20"/>
       <c r="G184" s="42" t="str">
@@ -5149,29 +5159,33 @@
       <c r="H184" s="39"/>
       <c r="I184" s="9"/>
       <c r="J184" s="11"/>
-      <c r="K184" s="20"/>
+      <c r="K184" s="20" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B185" s="20"/>
+      <c r="A185" s="40"/>
+      <c r="B185" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C185" s="13"/>
       <c r="D185" s="39"/>
       <c r="E185" s="9"/>
       <c r="F185" s="20"/>
-      <c r="G185" s="42" t="str">
+      <c r="G185" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H185" s="39"/>
       <c r="I185" s="9"/>
       <c r="J185" s="11"/>
-      <c r="K185" s="20"/>
+      <c r="K185" s="49">
+        <v>45323</v>
+      </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -5189,7 +5203,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -5207,7 +5221,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -5225,7 +5239,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -5243,7 +5257,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -5261,7 +5275,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -5279,7 +5293,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -5297,7 +5311,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -5315,7 +5329,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -5333,7 +5347,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -5351,7 +5365,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -5369,7 +5383,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -5387,7 +5401,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -5405,7 +5419,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -5423,7 +5437,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -5441,7 +5455,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -5459,7 +5473,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -5477,7 +5491,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -5495,7 +5509,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -5513,7 +5527,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -5531,7 +5545,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -5549,7 +5563,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -5567,7 +5581,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -5585,7 +5599,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -5603,7 +5617,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -5621,7 +5635,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -5639,7 +5653,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -5657,7 +5671,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -5674,7 +5688,9 @@
       <c r="K213" s="20"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="40"/>
+      <c r="A214" s="40">
+        <v>46203</v>
+      </c>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
       <c r="D214" s="39"/>
@@ -6138,20 +6154,36 @@
       <c r="K242" s="20"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="41"/>
-      <c r="B243" s="15"/>
-      <c r="C243" s="42"/>
-      <c r="D243" s="43"/>
-      <c r="E243" s="50"/>
-      <c r="F243" s="15"/>
+      <c r="A243" s="40"/>
+      <c r="B243" s="20"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="39"/>
+      <c r="E243" s="9"/>
+      <c r="F243" s="20"/>
       <c r="G243" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H243" s="43"/>
-      <c r="I243" s="50"/>
-      <c r="J243" s="12"/>
-      <c r="K243" s="15"/>
+      <c r="H243" s="39"/>
+      <c r="I243" s="9"/>
+      <c r="J243" s="11"/>
+      <c r="K243" s="20"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" s="41"/>
+      <c r="B244" s="15"/>
+      <c r="C244" s="42"/>
+      <c r="D244" s="43"/>
+      <c r="E244" s="50"/>
+      <c r="F244" s="15"/>
+      <c r="G244" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H244" s="43"/>
+      <c r="I244" s="50"/>
+      <c r="J244" s="12"/>
+      <c r="K244" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
